--- a/data/titanic.xlsx
+++ b/data/titanic.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_B5A8D2BF81AA5E067EB914637F18EDE8E7CDABF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35256B55-1601-4D1D-AD50-B240AE3A8534}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kookmin-my.sharepoint.com/personal/jaeschoi_kookmin_kr/Documents/202401/github/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_B5A8D2BF81AA5E067EB914637F18EDE8E7CDABF9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC6846B-5A93-4AF5-A377-ECCCBD924232}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20580" yWindow="2556" windowWidth="20640" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -170,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +231,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,6 +552,11 @@
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
       <we:containsCustomFunctions/>
     </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
   </we:extLst>
 </we:webextension>
 </file>
@@ -559,9 +569,9 @@
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -652,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -699,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -743,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -790,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -834,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -875,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -922,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -966,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1054,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1101,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1192,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1236,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1280,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1409,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1453,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1585,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1629,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1805,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1893,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2063,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2195,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2280,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2456,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2497,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2626,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2667,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2708,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -2793,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -2881,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2928,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3063,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3151,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3195,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -3239,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3283,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3324,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -3371,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3415,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3497,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -3588,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3632,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -3764,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -3943,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4025,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4113,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -4157,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4201,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4242,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0</v>
       </c>
@@ -4286,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4330,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4374,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0</v>
       </c>
@@ -4418,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0</v>
       </c>
@@ -4459,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4506,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
@@ -4550,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -4638,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0</v>
       </c>
@@ -4685,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0</v>
       </c>
@@ -4729,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -4773,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0</v>
       </c>
@@ -4814,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0</v>
       </c>
@@ -4861,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4952,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0</v>
       </c>
@@ -4996,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -5040,7 +5050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5081,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5128,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5172,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5216,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -5304,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -5345,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0</v>
       </c>
@@ -5389,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0</v>
       </c>
@@ -5477,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0</v>
       </c>
@@ -5521,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0</v>
       </c>
@@ -5653,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0</v>
       </c>
@@ -5697,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0</v>
       </c>
@@ -5741,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0</v>
       </c>
@@ -5785,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0</v>
       </c>
@@ -5832,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0</v>
       </c>
@@ -5876,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0</v>
       </c>
@@ -5920,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -5961,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0</v>
       </c>
@@ -6005,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -6052,7 +6062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0</v>
       </c>
@@ -6099,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -6143,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6228,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -6272,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0</v>
       </c>
@@ -6316,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0</v>
       </c>
@@ -6404,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0</v>
       </c>
@@ -6448,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -6492,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0</v>
       </c>
@@ -6536,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0</v>
       </c>
@@ -6580,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0</v>
       </c>
@@ -6718,7 +6728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0</v>
       </c>
@@ -6765,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>0</v>
       </c>
@@ -6806,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -6850,7 +6860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -6894,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0</v>
       </c>
@@ -6938,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0</v>
       </c>
@@ -6982,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0</v>
       </c>
@@ -7026,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -7070,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>0</v>
       </c>
@@ -7114,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0</v>
       </c>
@@ -7161,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0</v>
       </c>
@@ -7249,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -7296,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0</v>
       </c>
@@ -7340,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>0</v>
       </c>
@@ -7384,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0</v>
       </c>
@@ -7425,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0</v>
       </c>
@@ -7469,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0</v>
       </c>
@@ -7557,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0</v>
       </c>
@@ -7598,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0</v>
       </c>
@@ -7639,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0</v>
       </c>
@@ -7683,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0</v>
       </c>
@@ -7771,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0</v>
       </c>
@@ -7815,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0</v>
       </c>
@@ -7859,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -7903,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -7947,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>0</v>
       </c>
@@ -7991,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0</v>
       </c>
@@ -8032,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0</v>
       </c>
@@ -8076,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0</v>
       </c>
@@ -8167,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -8211,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0</v>
       </c>
@@ -8255,7 +8265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0</v>
       </c>
@@ -8302,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>0</v>
       </c>
@@ -8346,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0</v>
       </c>
@@ -8387,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>0</v>
       </c>
@@ -8434,7 +8444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>0</v>
       </c>
@@ -8478,7 +8488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0</v>
       </c>
@@ -8522,7 +8532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0</v>
       </c>
@@ -8563,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0</v>
       </c>
@@ -8604,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0</v>
       </c>
@@ -8648,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -8695,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -8739,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>0</v>
       </c>
@@ -8783,7 +8793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -8824,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -8868,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0</v>
       </c>
@@ -8912,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0</v>
       </c>
@@ -8956,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -9000,7 +9010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>0</v>
       </c>
@@ -9044,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -9088,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -9135,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -9182,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -9229,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0</v>
       </c>
@@ -9270,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>0</v>
       </c>
@@ -9314,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -9355,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0</v>
       </c>
@@ -9399,7 +9409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0</v>
       </c>
@@ -9443,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0</v>
       </c>
@@ -9484,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0</v>
       </c>
@@ -9528,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0</v>
       </c>
@@ -9572,7 +9582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -9616,7 +9626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0</v>
       </c>
@@ -9707,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -9751,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -9795,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -9842,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0</v>
       </c>
@@ -9886,7 +9896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -9930,7 +9940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0</v>
       </c>
@@ -9974,7 +9984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0</v>
       </c>
@@ -10018,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0</v>
       </c>
@@ -10059,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -10106,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -10150,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0</v>
       </c>
@@ -10194,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -10241,7 +10251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>0</v>
       </c>
@@ -10285,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -10329,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>0</v>
       </c>
@@ -10373,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0</v>
       </c>
@@ -10417,7 +10427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0</v>
       </c>
@@ -10458,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1</v>
       </c>
@@ -10505,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0</v>
       </c>
@@ -10549,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -10593,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>0</v>
       </c>
@@ -10637,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0</v>
       </c>
@@ -10681,7 +10691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0</v>
       </c>
@@ -10722,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
@@ -10769,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0</v>
       </c>
@@ -10813,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0</v>
       </c>
@@ -10857,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -10901,7 +10911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0</v>
       </c>
@@ -10945,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0</v>
       </c>
@@ -10986,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0</v>
       </c>
@@ -11030,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -11074,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0</v>
       </c>
@@ -11118,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0</v>
       </c>
@@ -11162,7 +11172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0</v>
       </c>
@@ -11203,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -11244,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0</v>
       </c>
@@ -11288,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0</v>
       </c>
@@ -11332,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0</v>
       </c>
@@ -11376,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0</v>
       </c>
@@ -11423,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1</v>
       </c>
@@ -11511,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -11558,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>0</v>
       </c>
@@ -11602,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>0</v>
       </c>
@@ -11643,7 +11653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>0</v>
       </c>
@@ -11690,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>0</v>
       </c>
@@ -11737,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>0</v>
       </c>
@@ -11781,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>0</v>
       </c>
@@ -11825,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -11869,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1</v>
       </c>
@@ -11910,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1</v>
       </c>
@@ -11957,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -12001,7 +12011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -12045,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>0</v>
       </c>
@@ -12086,7 +12096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -12130,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>0</v>
       </c>
@@ -12177,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>0</v>
       </c>
@@ -12224,7 +12234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>0</v>
       </c>
@@ -12265,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>0</v>
       </c>
@@ -12309,7 +12319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0</v>
       </c>
@@ -12353,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1</v>
       </c>
@@ -12397,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -12444,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1</v>
       </c>
@@ -12491,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>0</v>
       </c>
@@ -12532,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -12576,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -12620,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>0</v>
       </c>
@@ -12667,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -12708,7 +12718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -12755,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>0</v>
       </c>
@@ -12799,7 +12809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>0</v>
       </c>
@@ -12840,7 +12850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0</v>
       </c>
@@ -12884,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -12928,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0</v>
       </c>
@@ -12972,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>0</v>
       </c>
@@ -13016,7 +13026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0</v>
       </c>
@@ -13060,7 +13070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -13104,7 +13114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0</v>
       </c>
@@ -13148,7 +13158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0</v>
       </c>
@@ -13192,7 +13202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -13236,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>0</v>
       </c>
@@ -13280,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -13324,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -13368,7 +13378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -13412,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1</v>
       </c>
@@ -13459,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0</v>
       </c>
@@ -13506,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0</v>
       </c>
@@ -13550,7 +13560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>0</v>
       </c>
@@ -13594,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0</v>
       </c>
@@ -13635,7 +13645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>0</v>
       </c>
@@ -13679,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>0</v>
       </c>
@@ -13726,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1</v>
       </c>
@@ -13770,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1</v>
       </c>
@@ -13817,7 +13827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -13858,7 +13868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -13899,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>0</v>
       </c>
@@ -13943,7 +13953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -13987,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>0</v>
       </c>
@@ -14028,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
@@ -14075,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -14116,7 +14126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1</v>
       </c>
@@ -14163,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>0</v>
       </c>
@@ -14207,7 +14217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
@@ -14254,7 +14264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
@@ -14301,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1</v>
       </c>
@@ -14348,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>0</v>
       </c>
@@ -14392,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>0</v>
       </c>
@@ -14436,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>0</v>
       </c>
@@ -14480,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1</v>
       </c>
@@ -14524,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1</v>
       </c>
@@ -14568,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>0</v>
       </c>
@@ -14612,7 +14622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
@@ -14659,7 +14669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1</v>
       </c>
@@ -14706,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>0</v>
       </c>
@@ -14750,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>0</v>
       </c>
@@ -14794,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1</v>
       </c>
@@ -14838,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
@@ -14882,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>0</v>
       </c>
@@ -14923,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1</v>
       </c>
@@ -14970,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>0</v>
       </c>
@@ -15014,7 +15024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1</v>
       </c>
@@ -15061,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1</v>
       </c>
@@ -15105,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1</v>
       </c>
@@ -15152,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1</v>
       </c>
@@ -15193,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>0</v>
       </c>
@@ -15240,7 +15250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>0</v>
       </c>
@@ -15287,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>0</v>
       </c>
@@ -15331,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1</v>
       </c>
@@ -15372,7 +15382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>0</v>
       </c>
@@ -15413,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>0</v>
       </c>
@@ -15460,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1</v>
       </c>
@@ -15507,7 +15517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1</v>
       </c>
@@ -15551,7 +15561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>0</v>
       </c>
@@ -15595,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1</v>
       </c>
@@ -15642,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1</v>
       </c>
@@ -15689,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>0</v>
       </c>
@@ -15733,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>0</v>
       </c>
@@ -15777,7 +15787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>0</v>
       </c>
@@ -15821,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1</v>
       </c>
@@ -15868,7 +15878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1</v>
       </c>
@@ -15912,7 +15922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1</v>
       </c>
@@ -15953,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1</v>
       </c>
@@ -15997,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>0</v>
       </c>
@@ -16041,7 +16051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>0</v>
       </c>
@@ -16085,7 +16095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>0</v>
       </c>
@@ -16129,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>0</v>
       </c>
@@ -16173,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>0</v>
       </c>
@@ -16217,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>0</v>
       </c>
@@ -16258,7 +16268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>0</v>
       </c>
@@ -16302,7 +16312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1</v>
       </c>
@@ -16349,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>0</v>
       </c>
@@ -16393,7 +16403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1</v>
       </c>
@@ -16434,7 +16444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1</v>
       </c>
@@ -16475,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>0</v>
       </c>
@@ -16519,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>0</v>
       </c>
@@ -16563,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>0</v>
       </c>
@@ -16607,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>0</v>
       </c>
@@ -16651,7 +16661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>0</v>
       </c>
@@ -16692,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>0</v>
       </c>
@@ -16736,7 +16746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1</v>
       </c>
@@ -16783,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1</v>
       </c>
@@ -16824,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1</v>
       </c>
@@ -16865,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1</v>
       </c>
@@ -16912,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1</v>
       </c>
@@ -16959,7 +16969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>0</v>
       </c>
@@ -17003,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>0</v>
       </c>
@@ -17047,7 +17057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>0</v>
       </c>
@@ -17091,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>0</v>
       </c>
@@ -17135,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1</v>
       </c>
@@ -17176,7 +17186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1</v>
       </c>
@@ -17220,7 +17230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>0</v>
       </c>
@@ -17267,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>0</v>
       </c>
@@ -17311,7 +17321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>0</v>
       </c>
@@ -17355,7 +17365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1</v>
       </c>
@@ -17399,7 +17409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1</v>
       </c>
@@ -17443,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>0</v>
       </c>
@@ -17487,7 +17497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1</v>
       </c>
@@ -17531,7 +17541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>0</v>
       </c>
@@ -17572,7 +17582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>0</v>
       </c>
@@ -17616,7 +17626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>0</v>
       </c>
@@ -17660,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1</v>
       </c>
@@ -17704,7 +17714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>0</v>
       </c>
@@ -17745,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1</v>
       </c>
@@ -17789,7 +17799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1</v>
       </c>
@@ -17836,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1</v>
       </c>
@@ -17880,7 +17890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>0</v>
       </c>
@@ -17924,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1</v>
       </c>
@@ -17971,7 +17981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1</v>
       </c>
@@ -18018,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>0</v>
       </c>
@@ -18062,7 +18072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>0</v>
       </c>
@@ -18106,7 +18116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>0</v>
       </c>
@@ -18150,7 +18160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>0</v>
       </c>
@@ -18194,7 +18204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1</v>
       </c>
@@ -18238,7 +18248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1</v>
       </c>
@@ -18282,7 +18292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>0</v>
       </c>
@@ -18326,7 +18336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>0</v>
       </c>
@@ -18370,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>0</v>
       </c>
@@ -18414,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>0</v>
       </c>
@@ -18458,7 +18468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>0</v>
       </c>
@@ -18502,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>0</v>
       </c>
@@ -18546,7 +18556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1</v>
       </c>
@@ -18590,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>0</v>
       </c>
@@ -18634,7 +18644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>0</v>
       </c>
@@ -18675,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>0</v>
       </c>
@@ -18716,7 +18726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>0</v>
       </c>
@@ -18757,7 +18767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1</v>
       </c>
@@ -18804,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>0</v>
       </c>
@@ -18845,7 +18855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1</v>
       </c>
@@ -18889,7 +18899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>0</v>
       </c>
@@ -18930,7 +18940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1</v>
       </c>
@@ -18974,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1</v>
       </c>
@@ -19018,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>0</v>
       </c>
@@ -19062,7 +19072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>0</v>
       </c>
@@ -19106,7 +19116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>0</v>
       </c>
@@ -19147,7 +19157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>0</v>
       </c>
@@ -19191,7 +19201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>0</v>
       </c>
@@ -19235,7 +19245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>0</v>
       </c>
@@ -19279,7 +19289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>0</v>
       </c>
@@ -19323,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>0</v>
       </c>
@@ -19364,7 +19374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1</v>
       </c>
@@ -19408,7 +19418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1</v>
       </c>
@@ -19452,7 +19462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>0</v>
       </c>
@@ -19493,7 +19503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1</v>
       </c>
@@ -19540,7 +19550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1</v>
       </c>
@@ -19587,7 +19597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1</v>
       </c>
@@ -19628,7 +19638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1</v>
       </c>
@@ -19672,7 +19682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>0</v>
       </c>
@@ -19716,7 +19726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>0</v>
       </c>
@@ -19763,7 +19773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1</v>
       </c>
@@ -19810,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>0</v>
       </c>
@@ -19854,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1</v>
       </c>
@@ -19898,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>0</v>
       </c>
@@ -19945,7 +19955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>0</v>
       </c>
@@ -19989,7 +19999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1</v>
       </c>
@@ -20033,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>0</v>
       </c>
@@ -20077,7 +20087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>0</v>
       </c>
@@ -20121,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1</v>
       </c>
@@ -20165,7 +20175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1</v>
       </c>
@@ -20206,7 +20216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1</v>
       </c>
@@ -20253,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1</v>
       </c>
@@ -20297,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1</v>
       </c>
@@ -20341,7 +20351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1</v>
       </c>
@@ -20385,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1</v>
       </c>
@@ -20432,7 +20442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>0</v>
       </c>
@@ -20476,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>0</v>
       </c>
@@ -20517,7 +20527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>0</v>
       </c>
@@ -20564,7 +20574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1</v>
       </c>
@@ -20611,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>0</v>
       </c>
@@ -20652,7 +20662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1</v>
       </c>
@@ -20696,7 +20706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>0</v>
       </c>
@@ -20743,7 +20753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1</v>
       </c>
@@ -20787,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1</v>
       </c>
@@ -20831,7 +20841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>0</v>
       </c>
@@ -20872,7 +20882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1</v>
       </c>
@@ -20919,7 +20929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>0</v>
       </c>
@@ -20963,7 +20973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>0</v>
       </c>
@@ -21010,7 +21020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>0</v>
       </c>
@@ -21054,7 +21064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>0</v>
       </c>
@@ -21095,7 +21105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>0</v>
       </c>
@@ -21139,7 +21149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>0</v>
       </c>
@@ -21180,7 +21190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>0</v>
       </c>
@@ -21224,7 +21234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>0</v>
       </c>
@@ -21265,7 +21275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1</v>
       </c>
@@ -21309,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>0</v>
       </c>
@@ -21350,7 +21360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>0</v>
       </c>
@@ -21394,7 +21404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>1</v>
       </c>
@@ -21438,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1</v>
       </c>
@@ -21485,7 +21495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>0</v>
       </c>
@@ -21529,7 +21539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>0</v>
       </c>
@@ -21573,7 +21583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>0</v>
       </c>
@@ -21617,7 +21627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>0</v>
       </c>
@@ -21661,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>0</v>
       </c>
@@ -21705,7 +21715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>1</v>
       </c>
@@ -21749,7 +21759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>0</v>
       </c>
@@ -21793,7 +21803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>0</v>
       </c>
@@ -21834,7 +21844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>0</v>
       </c>
@@ -21878,7 +21888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1</v>
       </c>
@@ -21922,7 +21932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>1</v>
       </c>
@@ -21969,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>0</v>
       </c>
@@ -22010,7 +22020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1</v>
       </c>
@@ -22057,7 +22067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>0</v>
       </c>
@@ -22104,7 +22114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>0</v>
       </c>
@@ -22148,7 +22158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1</v>
       </c>
@@ -22192,7 +22202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>0</v>
       </c>
@@ -22233,7 +22243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>0</v>
       </c>
@@ -22277,7 +22287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>0</v>
       </c>
@@ -22324,7 +22334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>0</v>
       </c>
@@ -22368,7 +22378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>0</v>
       </c>
@@ -22412,7 +22422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>0</v>
       </c>
@@ -22453,7 +22463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1</v>
       </c>
@@ -22500,7 +22510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>0</v>
       </c>
@@ -22541,7 +22551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>0</v>
       </c>
@@ -22588,7 +22598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>0</v>
       </c>
@@ -22632,7 +22642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>0</v>
       </c>
@@ -22676,7 +22686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>0</v>
       </c>
@@ -22720,7 +22730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>0</v>
       </c>
@@ -22761,7 +22771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>0</v>
       </c>
@@ -22805,7 +22815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>1</v>
       </c>
@@ -22852,7 +22862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>0</v>
       </c>
@@ -22899,7 +22909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1</v>
       </c>
@@ -22943,7 +22953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1</v>
       </c>
@@ -22984,7 +22994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>0</v>
       </c>
@@ -23028,7 +23038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1</v>
       </c>
@@ -23072,7 +23082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1</v>
       </c>
@@ -23116,7 +23126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>0</v>
       </c>
@@ -23157,7 +23167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>1</v>
       </c>
@@ -23204,7 +23214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>1</v>
       </c>
@@ -23248,7 +23258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>0</v>
       </c>
@@ -23292,7 +23302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>0</v>
       </c>
@@ -23339,7 +23349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1</v>
       </c>
@@ -23386,7 +23396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>0</v>
       </c>
@@ -23427,7 +23437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1</v>
       </c>
@@ -23471,7 +23481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>0</v>
       </c>
@@ -23515,7 +23525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>1</v>
       </c>
@@ -23562,7 +23572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>0</v>
       </c>
@@ -23606,7 +23616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>0</v>
       </c>
@@ -23647,7 +23657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1</v>
       </c>
@@ -23694,7 +23704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>0</v>
       </c>
@@ -23735,7 +23745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>0</v>
       </c>
@@ -23779,7 +23789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1</v>
       </c>
@@ -23823,7 +23833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>0</v>
       </c>
@@ -23867,7 +23877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>0</v>
       </c>
@@ -23911,7 +23921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>0</v>
       </c>
@@ -23955,7 +23965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1</v>
       </c>
@@ -23999,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>0</v>
       </c>
@@ -24040,7 +24050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>0</v>
       </c>
@@ -24084,7 +24094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1</v>
       </c>
@@ -24125,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>0</v>
       </c>
@@ -24169,7 +24179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1</v>
       </c>
@@ -24213,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>0</v>
       </c>
@@ -24260,7 +24270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1</v>
       </c>
@@ -24304,7 +24314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>0</v>
       </c>
@@ -24345,7 +24355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>1</v>
       </c>
@@ -24392,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1</v>
       </c>
@@ -24439,7 +24449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>0</v>
       </c>
@@ -24483,7 +24493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>0</v>
       </c>
@@ -24527,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1</v>
       </c>
@@ -24571,7 +24581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>0</v>
       </c>
@@ -24618,7 +24628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>0</v>
       </c>
@@ -24662,7 +24672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>1</v>
       </c>
@@ -24706,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>1</v>
       </c>
@@ -24747,7 +24757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>0</v>
       </c>
@@ -24791,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>1</v>
       </c>
@@ -24835,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>1</v>
       </c>
@@ -24882,7 +24892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>0</v>
       </c>
@@ -24926,7 +24936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>0</v>
       </c>
@@ -24967,7 +24977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>1</v>
       </c>
@@ -25011,7 +25021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>1</v>
       </c>
@@ -25055,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>0</v>
       </c>
@@ -25099,7 +25109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>1</v>
       </c>
@@ -25146,7 +25156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>0</v>
       </c>
@@ -25187,7 +25197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>1</v>
       </c>
@@ -25234,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>1</v>
       </c>
@@ -25278,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>0</v>
       </c>
@@ -25319,7 +25329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>0</v>
       </c>
@@ -25363,7 +25373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>0</v>
       </c>
@@ -25407,7 +25417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>0</v>
       </c>
@@ -25448,7 +25458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>0</v>
       </c>
@@ -25489,7 +25499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>0</v>
       </c>
@@ -25533,7 +25543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>0</v>
       </c>
@@ -25577,7 +25587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>0</v>
       </c>
@@ -25621,7 +25631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>0</v>
       </c>
@@ -25662,7 +25672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>1</v>
       </c>
@@ -25706,7 +25716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>1</v>
       </c>
@@ -25750,7 +25760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>1</v>
       </c>
@@ -25797,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>1</v>
       </c>
@@ -25844,7 +25854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>1</v>
       </c>
@@ -25885,7 +25895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>0</v>
       </c>
@@ -25929,7 +25939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>0</v>
       </c>
@@ -25973,7 +25983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>1</v>
       </c>
@@ -26017,7 +26027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>1</v>
       </c>
@@ -26064,7 +26074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>0</v>
       </c>
@@ -26105,7 +26115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>1</v>
       </c>
@@ -26149,7 +26159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>1</v>
       </c>
@@ -26193,7 +26203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>1</v>
       </c>
@@ -26240,7 +26250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>0</v>
       </c>
@@ -26284,7 +26294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>0</v>
       </c>
@@ -26331,7 +26341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>0</v>
       </c>
@@ -26372,7 +26382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>1</v>
       </c>
@@ -26419,7 +26429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>0</v>
       </c>
@@ -26463,7 +26473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>1</v>
       </c>
@@ -26510,7 +26520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>0</v>
       </c>
@@ -26554,7 +26564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>0</v>
       </c>
@@ -26595,7 +26605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>0</v>
       </c>
@@ -26639,7 +26649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>1</v>
       </c>
@@ -26686,7 +26696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>0</v>
       </c>
@@ -26730,7 +26740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>0</v>
       </c>
@@ -26771,7 +26781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>0</v>
       </c>
@@ -26815,7 +26825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>0</v>
       </c>
@@ -26859,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>1</v>
       </c>
@@ -26900,7 +26910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>0</v>
       </c>
@@ -26944,7 +26954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>0</v>
       </c>
@@ -26985,7 +26995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>1</v>
       </c>
@@ -27032,7 +27042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>1</v>
       </c>
@@ -27076,7 +27086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>0</v>
       </c>
@@ -27117,7 +27127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>0</v>
       </c>
@@ -27158,7 +27168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>0</v>
       </c>
@@ -27202,7 +27212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>1</v>
       </c>
@@ -27246,7 +27256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>0</v>
       </c>
@@ -27290,7 +27300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>0</v>
       </c>
@@ -27334,7 +27344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:15">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>1</v>
       </c>
@@ -27378,7 +27388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:15">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>1</v>
       </c>
@@ -27422,7 +27432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:15">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>1</v>
       </c>
@@ -27469,7 +27479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:15">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>0</v>
       </c>
@@ -27513,7 +27523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:15">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>0</v>
       </c>
@@ -27554,7 +27564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:15">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>1</v>
       </c>
@@ -27595,7 +27605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:15">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>0</v>
       </c>
@@ -27636,7 +27646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:15">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>0</v>
       </c>
@@ -27680,7 +27690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:15">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>1</v>
       </c>
@@ -27724,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:15">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>0</v>
       </c>
@@ -27768,7 +27778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:15">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>0</v>
       </c>
@@ -27812,7 +27822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:15">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>1</v>
       </c>
@@ -27859,7 +27869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:15">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>0</v>
       </c>
@@ -27903,7 +27913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:15">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>0</v>
       </c>
@@ -27947,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>1</v>
       </c>
@@ -27994,7 +28004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:15">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>1</v>
       </c>
@@ -28038,7 +28048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>0</v>
       </c>
@@ -28082,7 +28092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>0</v>
       </c>
@@ -28126,7 +28136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>0</v>
       </c>
@@ -28173,7 +28183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>0</v>
       </c>
@@ -28217,7 +28227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>1</v>
       </c>
@@ -28264,7 +28274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>0</v>
       </c>
@@ -28308,7 +28318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>0</v>
       </c>
@@ -28349,7 +28359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>1</v>
       </c>
@@ -28396,7 +28406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>0</v>
       </c>
@@ -28440,7 +28450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>1</v>
       </c>
@@ -28487,7 +28497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>0</v>
       </c>
@@ -28528,7 +28538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>0</v>
       </c>
@@ -28572,7 +28582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>1</v>
       </c>
@@ -28616,7 +28626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>0</v>
       </c>
@@ -28660,7 +28670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>0</v>
       </c>
@@ -28704,7 +28714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>0</v>
       </c>
@@ -28748,7 +28758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>0</v>
       </c>
@@ -28789,7 +28799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>0</v>
       </c>
@@ -28833,7 +28843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>1</v>
       </c>
@@ -28880,7 +28890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>0</v>
       </c>
@@ -28924,7 +28934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>1</v>
       </c>
@@ -28965,7 +28975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>1</v>
       </c>
@@ -29009,7 +29019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>1</v>
       </c>
@@ -29056,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>0</v>
       </c>
@@ -29100,7 +29110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>1</v>
       </c>
@@ -29147,7 +29157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>0</v>
       </c>
@@ -29188,7 +29198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>1</v>
       </c>
@@ -29232,7 +29242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>0</v>
       </c>
@@ -29273,7 +29283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>1</v>
       </c>
@@ -29317,7 +29327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>0</v>
       </c>
@@ -29361,7 +29371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>1</v>
       </c>
@@ -29402,7 +29412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>0</v>
       </c>
@@ -29446,7 +29456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>0</v>
       </c>
@@ -29490,7 +29500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>0</v>
       </c>
@@ -29531,7 +29541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>0</v>
       </c>
@@ -29575,7 +29585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>0</v>
       </c>
@@ -29619,7 +29629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:15">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>0</v>
       </c>
@@ -29666,7 +29676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:15">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>1</v>
       </c>
@@ -29710,7 +29720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:15">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>0</v>
       </c>
@@ -29754,7 +29764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:15">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>0</v>
       </c>
@@ -29801,7 +29811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:15">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>0</v>
       </c>
@@ -29845,7 +29855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:15">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>1</v>
       </c>
@@ -29889,7 +29899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:15">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>0</v>
       </c>
@@ -29933,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:15">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>0</v>
       </c>
@@ -29977,7 +29987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:15">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>0</v>
       </c>
@@ -30018,7 +30028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:15">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>0</v>
       </c>
@@ -30062,7 +30072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:15">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>1</v>
       </c>
@@ -30106,7 +30116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:15">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>1</v>
       </c>
@@ -30150,7 +30160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>0</v>
       </c>
@@ -30197,7 +30207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>0</v>
       </c>
@@ -30241,7 +30251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>1</v>
       </c>
@@ -30285,7 +30295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>0</v>
       </c>
@@ -30326,7 +30336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>0</v>
       </c>
@@ -30370,7 +30380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>0</v>
       </c>
@@ -30414,7 +30424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>1</v>
       </c>
@@ -30458,7 +30468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>0</v>
       </c>
@@ -30502,7 +30512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>1</v>
       </c>
@@ -30549,7 +30559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>0</v>
       </c>
@@ -30590,7 +30600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>1</v>
       </c>
@@ -30637,7 +30647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>0</v>
       </c>
@@ -30681,7 +30691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>0</v>
       </c>
@@ -30725,7 +30735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>0</v>
       </c>
@@ -30769,7 +30779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>0</v>
       </c>
@@ -30813,7 +30823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>0</v>
       </c>
@@ -30857,7 +30867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:15">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>0</v>
       </c>
@@ -30901,7 +30911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:15">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>0</v>
       </c>
@@ -30945,7 +30955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:15">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>1</v>
       </c>
@@ -30992,7 +31002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:15">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>1</v>
       </c>
@@ -31039,7 +31049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:15">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>1</v>
       </c>
@@ -31083,7 +31093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:15">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>1</v>
       </c>
@@ -31124,7 +31134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:15">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>0</v>
       </c>
@@ -31168,7 +31178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:15">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>0</v>
       </c>
@@ -31212,7 +31222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:15">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>0</v>
       </c>
@@ -31256,7 +31266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:15">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>0</v>
       </c>
@@ -31300,7 +31310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:15">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>1</v>
       </c>
@@ -31341,7 +31351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:15">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>0</v>
       </c>
@@ -31388,7 +31398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:15">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>0</v>
       </c>
@@ -31435,7 +31445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:15">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>1</v>
       </c>
@@ -31482,7 +31492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:15">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>1</v>
       </c>
@@ -31529,7 +31539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:15">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>0</v>
       </c>
@@ -31573,7 +31583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:15">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>0</v>
       </c>
@@ -31617,7 +31627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:15">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>0</v>
       </c>
@@ -31661,7 +31671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:15">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>0</v>
       </c>
@@ -31705,7 +31715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:15">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>1</v>
       </c>
@@ -31749,7 +31759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:15">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>1</v>
       </c>
@@ -31796,7 +31806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:15">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>1</v>
       </c>
@@ -31840,7 +31850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:15">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>1</v>
       </c>
@@ -31881,7 +31891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:15">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>1</v>
       </c>
@@ -31928,7 +31938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:15">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>0</v>
       </c>
@@ -31972,7 +31982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:15">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>1</v>
       </c>
@@ -32019,7 +32029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:15">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>0</v>
       </c>
@@ -32063,7 +32073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:15">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>0</v>
       </c>
@@ -32107,7 +32117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:15">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>0</v>
       </c>
@@ -32154,7 +32164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:15">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>1</v>
       </c>
@@ -32201,7 +32211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:15">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>1</v>
       </c>
@@ -32248,7 +32258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:15">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>0</v>
       </c>
@@ -32289,7 +32299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:15">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>0</v>
       </c>
@@ -32333,7 +32343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:15">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>1</v>
       </c>
@@ -32377,7 +32387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:15">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>0</v>
       </c>
@@ -32421,7 +32431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:15">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>0</v>
       </c>
@@ -32465,7 +32475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:15">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>0</v>
       </c>
@@ -32509,7 +32519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:15">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>1</v>
       </c>
@@ -32556,7 +32566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:15">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>0</v>
       </c>
@@ -32600,7 +32610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:15">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>1</v>
       </c>
@@ -32644,7 +32654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:15">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>1</v>
       </c>
@@ -32685,7 +32695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:15">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>0</v>
       </c>
@@ -32729,7 +32739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:15">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>0</v>
       </c>
@@ -32773,7 +32783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:15">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>1</v>
       </c>
@@ -32820,7 +32830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:15">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>0</v>
       </c>
@@ -32864,7 +32874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:15">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>0</v>
       </c>
@@ -32905,7 +32915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:15">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>0</v>
       </c>
@@ -32949,7 +32959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:15">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>0</v>
       </c>
@@ -32993,7 +33003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:15">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>0</v>
       </c>
@@ -33037,7 +33047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:15">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>0</v>
       </c>
@@ -33081,7 +33091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:15">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>1</v>
       </c>
@@ -33128,7 +33138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:15">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>0</v>
       </c>
@@ -33169,7 +33179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:15">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>0</v>
       </c>
@@ -33210,7 +33220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:15">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>1</v>
       </c>
@@ -33254,7 +33264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:15">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>0</v>
       </c>
@@ -33301,7 +33311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:15">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>1</v>
       </c>
@@ -33348,7 +33358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:15">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>0</v>
       </c>
@@ -33392,7 +33402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:15">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>1</v>
       </c>
@@ -33436,7 +33446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:15">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>0</v>
       </c>
@@ -33483,7 +33493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:15">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>0</v>
       </c>
@@ -33527,7 +33537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:15">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>1</v>
       </c>
@@ -33571,7 +33581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:15">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>0</v>
       </c>
@@ -33618,7 +33628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:15">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>0</v>
       </c>
@@ -33662,7 +33672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:15">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>1</v>
       </c>
@@ -33706,7 +33716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:15">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>1</v>
       </c>
@@ -33753,7 +33763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:15">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>0</v>
       </c>
@@ -33797,7 +33807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:15">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>0</v>
       </c>
@@ -33841,7 +33851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:15">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>1</v>
       </c>
@@ -33885,7 +33895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:15">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>1</v>
       </c>
@@ -33929,7 +33939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:15">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>0</v>
       </c>
@@ -33973,7 +33983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:15">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>0</v>
       </c>
@@ -34017,7 +34027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:15">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>0</v>
       </c>
@@ -34061,7 +34071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:15">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>1</v>
       </c>
@@ -34108,7 +34118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:15">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>0</v>
       </c>
@@ -34149,7 +34159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:15">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>0</v>
       </c>
@@ -34193,7 +34203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:15">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>1</v>
       </c>
@@ -34237,7 +34247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:15">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>1</v>
       </c>
@@ -34284,7 +34294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:15">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>0</v>
       </c>
@@ -34328,7 +34338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:15">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>1</v>
       </c>
@@ -34375,7 +34385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:15">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>0</v>
       </c>
@@ -34416,7 +34426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:15">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>0</v>
       </c>
@@ -34460,7 +34470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:15">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>0</v>
       </c>
@@ -34501,7 +34511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:15">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>0</v>
       </c>
@@ -34545,7 +34555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:15">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>0</v>
       </c>
@@ -34589,7 +34599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:15">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>0</v>
       </c>
@@ -34633,7 +34643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:15">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>0</v>
       </c>
@@ -34680,7 +34690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:15">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>0</v>
       </c>
@@ -34721,7 +34731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:15">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>1</v>
       </c>
@@ -34765,7 +34775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:15">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>0</v>
       </c>
@@ -34809,7 +34819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:15">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>0</v>
       </c>
@@ -34853,7 +34863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:15">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>1</v>
       </c>
@@ -34897,7 +34907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:15">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>0</v>
       </c>
@@ -34938,7 +34948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:15">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>1</v>
       </c>
@@ -34985,7 +34995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:15">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>1</v>
       </c>
@@ -35029,7 +35039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:15">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>1</v>
       </c>
@@ -35076,7 +35086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:15">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>0</v>
       </c>
@@ -35123,7 +35133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:15">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>0</v>
       </c>
@@ -35164,7 +35174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:15">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>0</v>
       </c>
@@ -35208,7 +35218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:15">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>0</v>
       </c>
@@ -35252,7 +35262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:15">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>1</v>
       </c>
@@ -35296,7 +35306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:15">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>0</v>
       </c>
@@ -35340,7 +35350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:15">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>1</v>
       </c>
@@ -35384,7 +35394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:15">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>0</v>
       </c>
@@ -35431,7 +35441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:15">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>0</v>
       </c>
@@ -35472,7 +35482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:15">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>0</v>
       </c>
@@ -35516,7 +35526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:15">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>0</v>
       </c>
@@ -35557,7 +35567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:15">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>0</v>
       </c>
@@ -35598,7 +35608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:15">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>0</v>
       </c>
@@ -35642,7 +35652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:15">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>0</v>
       </c>
@@ -35686,7 +35696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:15">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>1</v>
       </c>
@@ -35733,7 +35743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:15">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>1</v>
       </c>
@@ -35777,7 +35787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:15">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>0</v>
       </c>
@@ -35821,7 +35831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:15">
+    <row r="801" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>0</v>
       </c>
@@ -35865,7 +35875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:15">
+    <row r="802" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>0</v>
       </c>
@@ -35909,7 +35919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:15">
+    <row r="803" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>1</v>
       </c>
@@ -35953,7 +35963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:15">
+    <row r="804" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>1</v>
       </c>
@@ -36000,7 +36010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:15">
+    <row r="805" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>1</v>
       </c>
@@ -36044,7 +36054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:15">
+    <row r="806" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>1</v>
       </c>
@@ -36088,7 +36098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:15">
+    <row r="807" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>0</v>
       </c>
@@ -36132,7 +36142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:15">
+    <row r="808" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>0</v>
       </c>
@@ -36179,7 +36189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:15">
+    <row r="809" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>0</v>
       </c>
@@ -36223,7 +36233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:15">
+    <row r="810" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>0</v>
       </c>
@@ -36267,7 +36277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:15">
+    <row r="811" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>1</v>
       </c>
@@ -36314,7 +36324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:15">
+    <row r="812" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>0</v>
       </c>
@@ -36358,7 +36368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:15">
+    <row r="813" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>0</v>
       </c>
@@ -36402,7 +36412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:15">
+    <row r="814" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>0</v>
       </c>
@@ -36446,7 +36456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:15">
+    <row r="815" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>0</v>
       </c>
@@ -36490,7 +36500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:15">
+    <row r="816" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>0</v>
       </c>
@@ -36534,7 +36544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:15">
+    <row r="817" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>0</v>
       </c>
@@ -36578,7 +36588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:15">
+    <row r="818" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>0</v>
       </c>
@@ -36622,7 +36632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:15">
+    <row r="819" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>0</v>
       </c>
@@ -36666,7 +36676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:15">
+    <row r="820" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>0</v>
       </c>
@@ -36710,7 +36720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:15">
+    <row r="821" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>0</v>
       </c>
@@ -36754,7 +36764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:15">
+    <row r="822" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>1</v>
       </c>
@@ -36801,7 +36811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:15">
+    <row r="823" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>1</v>
       </c>
@@ -36845,7 +36855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:15">
+    <row r="824" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>0</v>
       </c>
@@ -36889,7 +36899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:15">
+    <row r="825" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>1</v>
       </c>
@@ -36936,7 +36946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:15">
+    <row r="826" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>0</v>
       </c>
@@ -36980,7 +36990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:15">
+    <row r="827" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>0</v>
       </c>
@@ -37021,7 +37031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:15">
+    <row r="828" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>0</v>
       </c>
@@ -37062,7 +37072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:15">
+    <row r="829" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>1</v>
       </c>
@@ -37106,7 +37116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:15">
+    <row r="830" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>1</v>
       </c>
@@ -37147,7 +37157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:15">
+    <row r="831" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>1</v>
       </c>
@@ -37188,7 +37198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:15">
+    <row r="832" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>1</v>
       </c>
@@ -37232,7 +37242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:15">
+    <row r="833" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>1</v>
       </c>
@@ -37276,7 +37286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:15">
+    <row r="834" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>0</v>
       </c>
@@ -37317,7 +37327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:15">
+    <row r="835" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>0</v>
       </c>
@@ -37361,7 +37371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:15">
+    <row r="836" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>0</v>
       </c>
@@ -37405,7 +37415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:15">
+    <row r="837" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>1</v>
       </c>
@@ -37452,7 +37462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:15">
+    <row r="838" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>0</v>
       </c>
@@ -37496,7 +37506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:15">
+    <row r="839" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>0</v>
       </c>
@@ -37537,7 +37547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:15">
+    <row r="840" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>1</v>
       </c>
@@ -37581,7 +37591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:15">
+    <row r="841" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>1</v>
       </c>
@@ -37625,7 +37635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:15">
+    <row r="842" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>0</v>
       </c>
@@ -37669,7 +37679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:15">
+    <row r="843" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>0</v>
       </c>
@@ -37713,7 +37723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:15">
+    <row r="844" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>1</v>
       </c>
@@ -37757,7 +37767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:15">
+    <row r="845" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>0</v>
       </c>
@@ -37801,7 +37811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:15">
+    <row r="846" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>0</v>
       </c>
@@ -37845,7 +37855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:15">
+    <row r="847" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>0</v>
       </c>
@@ -37889,7 +37899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:15">
+    <row r="848" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>0</v>
       </c>
@@ -37930,7 +37940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:15">
+    <row r="849" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>0</v>
       </c>
@@ -37974,7 +37984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:15">
+    <row r="850" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>0</v>
       </c>
@@ -38018,7 +38028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:15">
+    <row r="851" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>1</v>
       </c>
@@ -38062,7 +38072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:15">
+    <row r="852" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>0</v>
       </c>
@@ -38106,7 +38116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:15">
+    <row r="853" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>0</v>
       </c>
@@ -38150,7 +38160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:15">
+    <row r="854" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>0</v>
       </c>
@@ -38194,7 +38204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:15">
+    <row r="855" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>1</v>
       </c>
@@ -38241,7 +38251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:15">
+    <row r="856" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>0</v>
       </c>
@@ -38285,7 +38295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:15">
+    <row r="857" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>1</v>
       </c>
@@ -38329,7 +38339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:15">
+    <row r="858" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>1</v>
       </c>
@@ -38373,7 +38383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:15">
+    <row r="859" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>1</v>
       </c>
@@ -38420,7 +38430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:15">
+    <row r="860" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>1</v>
       </c>
@@ -38464,7 +38474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:15">
+    <row r="861" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>0</v>
       </c>
@@ -38505,7 +38515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:15">
+    <row r="862" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>0</v>
       </c>
@@ -38549,7 +38559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:15">
+    <row r="863" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>0</v>
       </c>
@@ -38593,7 +38603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:15">
+    <row r="864" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>1</v>
       </c>
@@ -38640,7 +38650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:15">
+    <row r="865" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>0</v>
       </c>
@@ -38681,7 +38691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:15">
+    <row r="866" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>0</v>
       </c>
@@ -38725,7 +38735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:15">
+    <row r="867" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>1</v>
       </c>
@@ -38769,7 +38779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:15">
+    <row r="868" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>1</v>
       </c>
@@ -38813,7 +38823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:15">
+    <row r="869" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>0</v>
       </c>
@@ -38860,7 +38870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:15">
+    <row r="870" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>0</v>
       </c>
@@ -38901,7 +38911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:15">
+    <row r="871" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>1</v>
       </c>
@@ -38945,7 +38955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:15">
+    <row r="872" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>0</v>
       </c>
@@ -38989,7 +38999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:15">
+    <row r="873" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>1</v>
       </c>
@@ -39036,7 +39046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:15">
+    <row r="874" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>0</v>
       </c>
@@ -39083,7 +39093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:15">
+    <row r="875" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>0</v>
       </c>
@@ -39127,7 +39137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:15">
+    <row r="876" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>1</v>
       </c>
@@ -39171,7 +39181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:15">
+    <row r="877" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>1</v>
       </c>
@@ -39215,7 +39225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:15">
+    <row r="878" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>0</v>
       </c>
@@ -39259,7 +39269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:15">
+    <row r="879" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>0</v>
       </c>
@@ -39303,7 +39313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:15">
+    <row r="880" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>0</v>
       </c>
@@ -39344,7 +39354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:15">
+    <row r="881" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>1</v>
       </c>
@@ -39391,7 +39401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:15">
+    <row r="882" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>1</v>
       </c>
@@ -39435,7 +39445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:15">
+    <row r="883" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>0</v>
       </c>
@@ -39479,7 +39489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:15">
+    <row r="884" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>0</v>
       </c>
@@ -39523,7 +39533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:15">
+    <row r="885" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>0</v>
       </c>
@@ -39567,7 +39577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:15">
+    <row r="886" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>0</v>
       </c>
@@ -39611,7 +39621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:15">
+    <row r="887" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>0</v>
       </c>
@@ -39655,7 +39665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:15">
+    <row r="888" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>0</v>
       </c>
@@ -39699,7 +39709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:15">
+    <row r="889" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>1</v>
       </c>
@@ -39746,7 +39756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:15">
+    <row r="890" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>0</v>
       </c>
@@ -39787,7 +39797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:15">
+    <row r="891" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>1</v>
       </c>
@@ -39834,7 +39844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:15">
+    <row r="892" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>0</v>
       </c>
@@ -39878,7 +39888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:15">
+    <row r="893" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A893" t="e" cm="1">
         <f t="array" aca="1" ref="A893" ca="1">PY("import numpy as np
 np.random.rand(5)", 1)</f>
@@ -39895,5 +39905,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA94278A-3E7C-4C3B-9758-D5AD66640402}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA94278A-3E7C-4C3B-9758-D5AD66640402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>